--- a/medicine/Enfance/Donatien_Mary/Donatien_Mary.xlsx
+++ b/medicine/Enfance/Donatien_Mary/Donatien_Mary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donatien Mary, né le 16 avril 1983, est un illustrateur et auteur français de bande dessinée.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé des Arts décoratifs de Strasbourg en 2007, Donatien Mary est illustrateur pour la presse, pour l'édition jeunesse et auteur de bande dessinée. Il développe un univers singulier, recourant à des techniques nouvelles à chaque album : gommes, eaux-fortes, linogravure, aquatintes ou gravures sur bois.
-En 2020, il reçoit une « Mention » au prestigieux prix international, le Prix BolognaRagazzi[1], dans la catégorie Fiction, à la Foire du livre de jeunesse de Bologne pour Le Roi de la lune qu'il a illustré sur un texte de Bérengère Cournut.
+En 2020, il reçoit une « Mention » au prestigieux prix international, le Prix BolognaRagazzi, dans la catégorie Fiction, à la Foire du livre de jeunesse de Bologne pour Le Roi de la lune qu'il a illustré sur un texte de Bérengère Cournut.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Comète, avec Didier de Calan &amp; Matthias Picard, Phosphène, 2010
 Les Derniers Dinosaures, avec Didier de Calan, Éditions 2024, 2010
@@ -578,7 +594,9 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Derniers Dinosaures, Pavillon Jeunes Talents, Festival d'Angoulême 2011, Angoulême.
 Le Bal des Bourglout's, d'après Le Premier Bal d'Emma, avec Sophie Dutertre, Maison Fumetti, Festival Fumetti 2017, Nantes.</t>
